--- a/18 - Calculando ICMS 00 20 e 51.xlsx
+++ b/18 - Calculando ICMS 00 20 e 51.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>ICMS sem substituição tributária(CST 00, 20 e 51)</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Desc. globais</t>
+  </si>
+  <si>
+    <t>Exemplo com ICMS 20(CST20)</t>
+  </si>
+  <si>
+    <t>Redução Base C.</t>
+  </si>
+  <si>
+    <t>Base reduzida</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +171,18 @@
         <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border/>
@@ -221,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -294,6 +315,13 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -320,6 +348,7 @@
     <col customWidth="1" min="3" max="3" width="14.0"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="10" max="11" width="16.29"/>
+    <col customWidth="1" min="12" max="12" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,14 +675,334 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C27" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" ref="E27:E29" si="5">B27*(C27-D27)</f>
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <f>(E27/E30)*100</f>
+        <v>23.80952381</v>
+      </c>
+      <c r="G27" s="21">
+        <f>(F27/100)*B32</f>
+        <v>4.761904762</v>
+      </c>
+      <c r="H27" s="20">
+        <f>(F27/100)*B33</f>
+        <v>2.380952381</v>
+      </c>
+      <c r="I27" s="20">
+        <f>(F27/100)*B34</f>
+        <v>3.571428571</v>
+      </c>
+      <c r="J27" s="20">
+        <f>(F27/100)*B35</f>
+        <v>0.9523809524</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" ref="K27:K29" si="6">E27+G27+H27+I27-J27</f>
+        <v>24.76190476</v>
+      </c>
+      <c r="L27" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="M27" s="36">
+        <f t="shared" ref="M27:M29" si="7">K27-(L27/100)*K27</f>
+        <v>22.28571429</v>
+      </c>
+      <c r="N27" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" ref="O27:O29" si="8">(N27/100)*M27</f>
+        <v>4.011428571</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f>(E28/E30)*100</f>
+        <v>12.6984127</v>
+      </c>
+      <c r="G28" s="20">
+        <f>(F28/100)*B32</f>
+        <v>2.53968254</v>
+      </c>
+      <c r="H28" s="20">
+        <f>(F28/100)*B33</f>
+        <v>1.26984127</v>
+      </c>
+      <c r="I28" s="20">
+        <f>(F28/100)*B34</f>
+        <v>1.904761905</v>
+      </c>
+      <c r="J28" s="20">
+        <f>(F28/100)*B35</f>
+        <v>0.5079365079</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="6"/>
+        <v>13.20634921</v>
+      </c>
+      <c r="L28" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="M28" s="36">
+        <f t="shared" si="7"/>
+        <v>12.54603175</v>
+      </c>
+      <c r="N28" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="8"/>
+        <v>2.258285714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <f>(E29/E30)*100</f>
+        <v>63.49206349</v>
+      </c>
+      <c r="G29" s="20">
+        <f>(F29/100)*B32</f>
+        <v>12.6984127</v>
+      </c>
+      <c r="H29" s="20">
+        <f>(F29/100)*B33</f>
+        <v>6.349206349</v>
+      </c>
+      <c r="I29" s="20">
+        <f>(F29/100)*B34</f>
+        <v>9.523809524</v>
+      </c>
+      <c r="J29" s="20">
+        <f>(F29/100)*B35</f>
+        <v>2.53968254</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="6"/>
+        <v>66.03174603</v>
+      </c>
+      <c r="L29" s="35">
+        <v>12.0</v>
+      </c>
+      <c r="M29" s="36">
+        <f t="shared" si="7"/>
+        <v>58.10793651</v>
+      </c>
+      <c r="N29" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="8"/>
+        <v>10.45942857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="24">
+        <f t="shared" ref="B30:K30" si="9">sum(B27:B29)</f>
+        <v>10</v>
+      </c>
+      <c r="C30" s="25">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="25">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I30" s="25">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J30" s="25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25">
+        <f>sum(M27:M29)</f>
+        <v>92.93968254</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="27">
+        <f>sum(O27:O29)</f>
+        <v>16.72914286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="29">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="31">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="31">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="33">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
